--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D0725-2A1B-1F40-A9D3-BAB7C04B4AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F23A1A-D1BF-E848-8C67-BC2120AAC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$270</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="189">
   <si>
     <t>Activity</t>
   </si>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228:H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4587,450 +4587,473 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>160</v>
+      </c>
+      <c r="B230" s="7">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>42</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" t="s">
+        <v>23</v>
+      </c>
+      <c r="H230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>8</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" t="s">
-        <v>7</v>
-      </c>
-      <c r="G240" t="s">
-        <v>5</v>
-      </c>
-      <c r="H240" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>164</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="B242">
-        <v>2.46</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D242" t="s">
         <v>42</v>
       </c>
       <c r="F242" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G242" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H242" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>58</v>
+      </c>
+      <c r="B243">
+        <v>2.46</v>
+      </c>
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243" t="s">
+        <v>59</v>
+      </c>
+      <c r="G243" t="s">
+        <v>23</v>
+      </c>
+      <c r="H243" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>168</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C243" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" t="s">
-        <v>42</v>
-      </c>
-      <c r="F243" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" t="s">
-        <v>23</v>
-      </c>
-      <c r="H243" t="s">
+      <c r="C244" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" t="s">
+        <v>42</v>
+      </c>
+      <c r="F244" t="s">
+        <v>22</v>
+      </c>
+      <c r="G244" t="s">
+        <v>23</v>
+      </c>
+      <c r="H244" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>8</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>13</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>14</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>15</v>
       </c>
-      <c r="D254" t="s">
-        <v>1</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
         <v>7</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F255" t="s">
         <v>5</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G255" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
         <v>65</v>
       </c>
-      <c r="D255" t="s">
-        <v>42</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="D256" t="s">
+        <v>42</v>
+      </c>
+      <c r="E256" t="s">
         <v>64</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F256" t="s">
         <v>19</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G256" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>58</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C256" t="s">
-        <v>21</v>
-      </c>
-      <c r="D256" t="s">
-        <v>42</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="C257" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" t="s">
         <v>59</v>
       </c>
-      <c r="F256" t="s">
-        <v>23</v>
-      </c>
-      <c r="G256" t="s">
+      <c r="F257" t="s">
+        <v>23</v>
+      </c>
+      <c r="G257" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>1</v>
-      </c>
-      <c r="B259" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>3</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>8</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>13</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>14</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>15</v>
       </c>
-      <c r="D267" t="s">
-        <v>1</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
         <v>7</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F268" t="s">
         <v>5</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G268" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
         <v>65</v>
       </c>
-      <c r="D268" t="s">
-        <v>42</v>
-      </c>
-      <c r="E268" t="s">
+      <c r="D269" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" t="s">
         <v>64</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F269" t="s">
         <v>19</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G269" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>58</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C269" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269" t="s">
-        <v>42</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="C270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" t="s">
         <v>59</v>
       </c>
-      <c r="F269" t="s">
-        <v>23</v>
-      </c>
-      <c r="G269" t="s">
+      <c r="F270" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I269" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I270" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
